--- a/data-raw/Subjects.xlsx
+++ b/data-raw/Subjects.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_packages\dataobservatory\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5683A1C-8802-425C-8EB3-B219E8E69621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8468C6-8204-4478-A0F9-0BABEEDAA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B6F0C2C-0BF9-4848-B851-2E6354A53F69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3B6F0C2C-0BF9-4848-B851-2E6354A53F69}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenDeal" sheetId="1" r:id="rId1"/>
     <sheet name="Antitrust" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Climate change</t>
   </si>
@@ -122,13 +123,97 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Competition--Government policy</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh2009121088</t>
+  </si>
+  <si>
+    <t>Barriers to entry (Industrial organization)</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85011959</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1163938</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85086963</t>
+  </si>
+  <si>
+    <t>Monopolies</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q43637</t>
+  </si>
+  <si>
+    <t>Sound studios</t>
+  </si>
+  <si>
+    <t>Recording studios</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85125401</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q746369</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85125388</t>
+  </si>
+  <si>
+    <t>Sound recording industry</t>
+  </si>
+  <si>
+    <t>Recording industry</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh2003002219</t>
+  </si>
+  <si>
+    <t>Record stores</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85088944</t>
+  </si>
+  <si>
+    <t>Music industry</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh99004266</t>
+  </si>
+  <si>
+    <t>Cultural industries</t>
+  </si>
+  <si>
+    <t>Creative industries</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85036623</t>
+  </si>
+  <si>
+    <t>Demand (Economic theory)</t>
+  </si>
+  <si>
+    <t>https://id.loc.gov/authorities/subjects/sh85031497.html</t>
+  </si>
+  <si>
+    <t>Consumers' Surplus</t>
+  </si>
+  <si>
+    <t>Production (Economic theory)</t>
+  </si>
+  <si>
+    <t>https://id.loc.gov/authorities/subjects/sh85107209.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +228,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,9 +257,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,11 +584,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
@@ -623,13 +722,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBB5C2-75E3-477F-9992-D5FB2EA5FC98}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -648,7 +750,155 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{98E14A22-88B5-4194-BF2B-C1EF69B53662}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{ECF049DE-C613-4EEC-B4C8-489797E1DEF7}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{4C25D613-758C-445B-9114-6608CA89EFE0}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{716500C6-4FA0-4A44-AD96-570A6297BB6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCCC20C-42AC-45AE-A9C8-222DE1386489}">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="str">
+        <f>D6</f>
+        <v>http://id.loc.gov/authorities/subjects/sh99004266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BB89FA1C-5D2A-4EAD-9180-9252DECCB8A0}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{1C503A76-53BC-46B0-8953-B104AFFFA8DA}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{997E4938-30DE-4840-B850-E97C695B86C3}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{A6AFBC81-3DC9-493B-A900-FAD7E9E34A52}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{BEA0E7EF-446D-4ADB-ABF3-2CF7E9967ADF}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{2EE19809-9BE2-4BBA-BA6A-AE80B5304A02}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{2F050BC4-D29E-49BA-8FBB-54DD02B6BDFE}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{EEE0616E-9E9F-462A-8911-CA3054040208}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{3A5E3725-D50E-4D0C-B961-7F8D0DE11ADE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+</worksheet>
 </file>
--- a/data-raw/Subjects.xlsx
+++ b/data-raw/Subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_packages\dataobservatory\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8468C6-8204-4478-A0F9-0BABEEDAA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51521F77-C672-4514-95C8-EB44DED76C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3B6F0C2C-0BF9-4848-B851-2E6354A53F69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Climate change</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>https://id.loc.gov/authorities/subjects/sh85107209.html</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh98003697</t>
+  </si>
+  <si>
+    <t>Internet users</t>
+  </si>
+  <si>
+    <t>Musical instruments</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85088961</t>
+  </si>
+  <si>
+    <t>Computer storage devices</t>
+  </si>
+  <si>
+    <t>https://id.loc.gov/authorities/subjects/sh85029541.html</t>
   </si>
 </sst>
 </file>
@@ -793,10 +811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCCC20C-42AC-45AE-A9C8-222DE1386489}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +902,30 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -897,8 +939,11 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{2F050BC4-D29E-49BA-8FBB-54DD02B6BDFE}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{EEE0616E-9E9F-462A-8911-CA3054040208}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{3A5E3725-D50E-4D0C-B961-7F8D0DE11ADE}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{0D0DA5F1-C7F6-4DDE-B934-AAE37D3B708C}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{2C2F5D7B-EBC8-413C-90BF-BBD84F046BEA}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{D0589565-3E24-43B0-A39D-E5077222CF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/data-raw/Subjects.xlsx
+++ b/data-raw/Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_packages\dataobservatory\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51521F77-C672-4514-95C8-EB44DED76C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E250BF-F325-4DED-9C99-8A3E604F01AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3B6F0C2C-0BF9-4848-B851-2E6354A53F69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B6F0C2C-0BF9-4848-B851-2E6354A53F69}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenDeal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Climate change</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>https://id.loc.gov/authorities/subjects/sh85029541.html</t>
+  </si>
+  <si>
+    <t>Radio broadcasting</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/subjects/sh85110448</t>
   </si>
 </sst>
 </file>
@@ -811,10 +817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCCC20C-42AC-45AE-A9C8-222DE1386489}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,6 +932,14 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -942,8 +956,9 @@
     <hyperlink ref="D11" r:id="rId10" xr:uid="{0D0DA5F1-C7F6-4DDE-B934-AAE37D3B708C}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{2C2F5D7B-EBC8-413C-90BF-BBD84F046BEA}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{D0589565-3E24-43B0-A39D-E5077222CF28}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{5325B145-83B9-46CC-8E8F-644C4E8E248F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>